--- a/code/meat_RR.xlsx
+++ b/code/meat_RR.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AB1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
